--- a/Physiopathologie/Excel/endocrinien.xlsx
+++ b/Physiopathologie/Excel/endocrinien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740CB08-BD77-46DF-B504-D17DEE8FFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27D6342-86D8-4E80-B1FE-A5A31A7B396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Numero</t>
   </si>
@@ -65,9 +65,6 @@
     <t xml:space="preserve"> La somatostatine est également un neuromédiateur hypothalamique qui exerce un effet inhibiteur sur les cellules thyréotropes et sur les cellules somatotropes de l'hypophyse antérieure.   </t>
   </si>
   <si>
-    <t xml:space="preserve">.Tous les patients porteurs d'une hyperthyroïdie primaire ont une TSH basse.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La compression de la tige pituitaire par une lésion invasive s'accompagne toujours d'une augmentation de la prolactine plasmatique.    </t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t xml:space="preserve"> Une corticothérapie au long cours peut induire une hyperpigmentation cutanée    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une hyponatrémie hypo-osmolaire avec Un/Uk &gt; 1, s'il existe également une hyperkaliémie et si la rénine est élevée, le diagnostic d'hypo-aldostéronisme primaire est possible.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q23. Concernant l'hypophyse, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
@@ -98,13 +92,40 @@
     <t xml:space="preserve">Q16. Concernant les surrénales, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Au niveau des cellules possédant le récepteur aux minéralocorticoïdes, le cortisol est activé en cortisone par la 118-HS02 et peut ainsi exercer ses effets minéralocorticoides.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'hyperstimulation de l'axe corticotrope peut induire une hyperpigmentation cutanée via la liaison du cortisol au récepteur MC1 du mélanocyte.   </t>
   </si>
   <si>
     <t xml:space="preserve"> Lorsque les taux de rénine sont indétectables et les taux d'aldostérone sont élevés, il faut songer à un état d'hyperaldostéronisme primaire, Ce diagnostic est renforcé si les éléments suivants sont présents: HTA sans œdèmes; natrémie à la limite supérieure de la normale ou hypernatrémie peu importante (145 à 147 mEq/Lj; hypokaliémie; alcalose métabolique chloro-résistante.    </t>
+  </si>
+  <si>
+    <t>SST = somatostatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les patients porteurs d'une hyperthyroïdie primaire ont une TSH basse.   </t>
+  </si>
+  <si>
+    <t>pas toujours mais parfois</t>
+  </si>
+  <si>
+    <t>Au cours d'une corticothérapie, il y a une diminution de l'ACTH, or l'hyperpigmentation cutanée est un signoe de l'augmentation d'ACTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une hyponatrémie hypo-osmolaire avec U_Na/U_K &gt; 1, s'il existe également une hyperkaliémie et si la rénine est élevée, le diagnostic d'hypo-aldostéronisme primaire est possible.    </t>
+  </si>
+  <si>
+    <t>est maximale avant midi et minimal vers minuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau des cellules possédant le récepteur aux minéralocorticoïdes, le cortisol est activé en cortisone par la 11beta-HSD2 et peut ainsi exercer ses effets minéralocorticoides.   </t>
+  </si>
+  <si>
+    <t>Pas jamais</t>
+  </si>
+  <si>
+    <t>est inactivé</t>
+  </si>
+  <si>
+    <t>C'est l'acth qui se lie au recepteur</t>
   </si>
 </sst>
 </file>
@@ -504,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -563,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -583,13 +604,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -600,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -620,16 +641,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -640,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -660,10 +681,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -680,16 +701,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -700,16 +721,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -720,16 +741,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -740,16 +761,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -760,10 +781,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
